--- a/Downer/29839/SH29+-1+-+Concrete+and+Structures+Inspection+and+Test+Plan+-+Rev+A.xlsx
+++ b/Downer/29839/SH29+-1+-+Concrete+and+Structures+Inspection+and+Test+Plan+-+Rev+A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Major Projects North\02 Projects\01 Current\DN - 1208 SH1-29 Intersection\06 Quality\01 Inspection and Test Plans\Draft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Downer\29839\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3CA733-2F0C-400F-BABB-598962186DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C68413-81DD-4571-A305-320BF27C6780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="816" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="0" windowWidth="29100" windowHeight="19440" tabRatio="816" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ITP Cover Page" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="633">
   <si>
     <t>Project Name:</t>
   </si>
@@ -2000,6 +2000,9 @@
   </si>
   <si>
     <t>103</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -4076,12 +4079,330 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4105,324 +4426,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5086,30 +5089,30 @@
       <c r="V5" s="13"/>
     </row>
     <row r="6" spans="1:22" s="11" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="247" t="s">
+      <c r="A6" s="276" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="248"/>
-      <c r="C6" s="248"/>
-      <c r="D6" s="248"/>
-      <c r="E6" s="248"/>
-      <c r="F6" s="248"/>
-      <c r="G6" s="248"/>
-      <c r="H6" s="248"/>
-      <c r="I6" s="248"/>
-      <c r="J6" s="248"/>
-      <c r="K6" s="248"/>
-      <c r="L6" s="248"/>
-      <c r="M6" s="248"/>
-      <c r="N6" s="248"/>
-      <c r="O6" s="248"/>
-      <c r="P6" s="248"/>
-      <c r="Q6" s="248"/>
-      <c r="R6" s="248"/>
-      <c r="S6" s="248"/>
-      <c r="T6" s="248"/>
-      <c r="U6" s="248"/>
-      <c r="V6" s="249"/>
+      <c r="B6" s="277"/>
+      <c r="C6" s="277"/>
+      <c r="D6" s="277"/>
+      <c r="E6" s="277"/>
+      <c r="F6" s="277"/>
+      <c r="G6" s="277"/>
+      <c r="H6" s="277"/>
+      <c r="I6" s="277"/>
+      <c r="J6" s="277"/>
+      <c r="K6" s="277"/>
+      <c r="L6" s="277"/>
+      <c r="M6" s="277"/>
+      <c r="N6" s="277"/>
+      <c r="O6" s="277"/>
+      <c r="P6" s="277"/>
+      <c r="Q6" s="277"/>
+      <c r="R6" s="277"/>
+      <c r="S6" s="277"/>
+      <c r="T6" s="277"/>
+      <c r="U6" s="277"/>
+      <c r="V6" s="278"/>
     </row>
     <row r="7" spans="1:22" s="11" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
@@ -5136,100 +5139,100 @@
       <c r="V7" s="13"/>
     </row>
     <row r="8" spans="1:22" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="251" t="s">
+      <c r="A8" s="253" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="252"/>
-      <c r="C8" s="252"/>
-      <c r="D8" s="253"/>
-      <c r="E8" s="255" t="s">
+      <c r="B8" s="250"/>
+      <c r="C8" s="250"/>
+      <c r="D8" s="279"/>
+      <c r="E8" s="281" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="255"/>
-      <c r="G8" s="255"/>
-      <c r="H8" s="255"/>
-      <c r="I8" s="255"/>
-      <c r="J8" s="255"/>
-      <c r="K8" s="256"/>
-      <c r="L8" s="252" t="s">
+      <c r="F8" s="281"/>
+      <c r="G8" s="281"/>
+      <c r="H8" s="281"/>
+      <c r="I8" s="281"/>
+      <c r="J8" s="281"/>
+      <c r="K8" s="282"/>
+      <c r="L8" s="250" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="252"/>
-      <c r="N8" s="252"/>
-      <c r="O8" s="253"/>
-      <c r="P8" s="260" t="s">
+      <c r="M8" s="250"/>
+      <c r="N8" s="250"/>
+      <c r="O8" s="279"/>
+      <c r="P8" s="285" t="s">
         <v>631</v>
       </c>
-      <c r="Q8" s="260"/>
-      <c r="R8" s="260"/>
-      <c r="S8" s="260"/>
-      <c r="T8" s="260"/>
-      <c r="U8" s="260"/>
-      <c r="V8" s="261"/>
+      <c r="Q8" s="285"/>
+      <c r="R8" s="285"/>
+      <c r="S8" s="285"/>
+      <c r="T8" s="285"/>
+      <c r="U8" s="285"/>
+      <c r="V8" s="286"/>
     </row>
     <row r="9" spans="1:22" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="257" t="s">
+      <c r="A9" s="255" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="241"/>
-      <c r="C9" s="241"/>
-      <c r="D9" s="242"/>
-      <c r="E9" s="258"/>
-      <c r="F9" s="258"/>
-      <c r="G9" s="258"/>
-      <c r="H9" s="258"/>
-      <c r="I9" s="258"/>
-      <c r="J9" s="258"/>
-      <c r="K9" s="259"/>
-      <c r="L9" s="241" t="s">
+      <c r="B9" s="256"/>
+      <c r="C9" s="256"/>
+      <c r="D9" s="272"/>
+      <c r="E9" s="283"/>
+      <c r="F9" s="283"/>
+      <c r="G9" s="283"/>
+      <c r="H9" s="283"/>
+      <c r="I9" s="283"/>
+      <c r="J9" s="283"/>
+      <c r="K9" s="284"/>
+      <c r="L9" s="256" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="241"/>
-      <c r="N9" s="241"/>
-      <c r="O9" s="242"/>
-      <c r="P9" s="243" t="s">
+      <c r="M9" s="256"/>
+      <c r="N9" s="256"/>
+      <c r="O9" s="272"/>
+      <c r="P9" s="273" t="s">
         <v>110</v>
       </c>
-      <c r="Q9" s="243"/>
-      <c r="R9" s="243"/>
-      <c r="S9" s="243"/>
-      <c r="T9" s="243"/>
-      <c r="U9" s="243"/>
-      <c r="V9" s="244"/>
+      <c r="Q9" s="273"/>
+      <c r="R9" s="273"/>
+      <c r="S9" s="273"/>
+      <c r="T9" s="273"/>
+      <c r="U9" s="273"/>
+      <c r="V9" s="274"/>
     </row>
     <row r="10" spans="1:22" s="11" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="250" t="s">
+      <c r="A10" s="243" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="245"/>
-      <c r="C10" s="245"/>
-      <c r="D10" s="246"/>
-      <c r="E10" s="254" t="s">
+      <c r="B10" s="244"/>
+      <c r="C10" s="244"/>
+      <c r="D10" s="275"/>
+      <c r="E10" s="280" t="s">
         <v>628</v>
       </c>
-      <c r="F10" s="254"/>
-      <c r="G10" s="254"/>
-      <c r="H10" s="254"/>
-      <c r="I10" s="254"/>
-      <c r="J10" s="254"/>
-      <c r="K10" s="254"/>
-      <c r="L10" s="245" t="s">
+      <c r="F10" s="280"/>
+      <c r="G10" s="280"/>
+      <c r="H10" s="280"/>
+      <c r="I10" s="280"/>
+      <c r="J10" s="280"/>
+      <c r="K10" s="280"/>
+      <c r="L10" s="244" t="s">
         <v>57</v>
       </c>
-      <c r="M10" s="245"/>
-      <c r="N10" s="245">
+      <c r="M10" s="244"/>
+      <c r="N10" s="244">
         <v>1000</v>
       </c>
-      <c r="O10" s="246"/>
-      <c r="P10" s="262" t="s">
+      <c r="O10" s="275"/>
+      <c r="P10" s="287" t="s">
         <v>2</v>
       </c>
-      <c r="Q10" s="262"/>
-      <c r="R10" s="262"/>
-      <c r="S10" s="262"/>
-      <c r="T10" s="262"/>
-      <c r="U10" s="262"/>
-      <c r="V10" s="263"/>
+      <c r="Q10" s="287"/>
+      <c r="R10" s="287"/>
+      <c r="S10" s="287"/>
+      <c r="T10" s="287"/>
+      <c r="U10" s="287"/>
+      <c r="V10" s="288"/>
     </row>
     <row r="11" spans="1:22" s="11" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
@@ -5256,92 +5259,92 @@
       <c r="V11" s="12"/>
     </row>
     <row r="12" spans="1:22" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="251" t="s">
+      <c r="A12" s="253" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="252"/>
-      <c r="C12" s="252"/>
-      <c r="D12" s="252"/>
-      <c r="E12" s="266">
+      <c r="B12" s="250"/>
+      <c r="C12" s="250"/>
+      <c r="D12" s="250"/>
+      <c r="E12" s="254">
         <v>7991</v>
       </c>
-      <c r="F12" s="266"/>
-      <c r="G12" s="266"/>
-      <c r="H12" s="266"/>
-      <c r="I12" s="266"/>
-      <c r="J12" s="266"/>
-      <c r="K12" s="266"/>
-      <c r="L12" s="252" t="s">
+      <c r="F12" s="254"/>
+      <c r="G12" s="254"/>
+      <c r="H12" s="254"/>
+      <c r="I12" s="254"/>
+      <c r="J12" s="254"/>
+      <c r="K12" s="254"/>
+      <c r="L12" s="250" t="s">
         <v>75</v>
       </c>
-      <c r="M12" s="252"/>
-      <c r="N12" s="252"/>
-      <c r="O12" s="252"/>
-      <c r="P12" s="264"/>
-      <c r="Q12" s="264"/>
-      <c r="R12" s="264"/>
-      <c r="S12" s="264"/>
-      <c r="T12" s="264"/>
-      <c r="U12" s="264"/>
-      <c r="V12" s="265"/>
+      <c r="M12" s="250"/>
+      <c r="N12" s="250"/>
+      <c r="O12" s="250"/>
+      <c r="P12" s="251"/>
+      <c r="Q12" s="251"/>
+      <c r="R12" s="251"/>
+      <c r="S12" s="251"/>
+      <c r="T12" s="251"/>
+      <c r="U12" s="251"/>
+      <c r="V12" s="252"/>
     </row>
     <row r="13" spans="1:22" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="257" t="s">
+      <c r="A13" s="255" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="241"/>
-      <c r="C13" s="241"/>
-      <c r="D13" s="241"/>
-      <c r="E13" s="267" t="s">
+      <c r="B13" s="256"/>
+      <c r="C13" s="256"/>
+      <c r="D13" s="256"/>
+      <c r="E13" s="257" t="s">
         <v>129</v>
       </c>
-      <c r="F13" s="267"/>
-      <c r="G13" s="267"/>
-      <c r="H13" s="267"/>
-      <c r="I13" s="267"/>
-      <c r="J13" s="267"/>
-      <c r="K13" s="267"/>
-      <c r="L13" s="241" t="s">
+      <c r="F13" s="257"/>
+      <c r="G13" s="257"/>
+      <c r="H13" s="257"/>
+      <c r="I13" s="257"/>
+      <c r="J13" s="257"/>
+      <c r="K13" s="257"/>
+      <c r="L13" s="256" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="241"/>
-      <c r="N13" s="241"/>
-      <c r="O13" s="241"/>
-      <c r="P13" s="279"/>
-      <c r="Q13" s="280"/>
-      <c r="R13" s="280"/>
-      <c r="S13" s="280"/>
-      <c r="T13" s="280"/>
-      <c r="U13" s="280"/>
-      <c r="V13" s="281"/>
+      <c r="M13" s="256"/>
+      <c r="N13" s="256"/>
+      <c r="O13" s="256"/>
+      <c r="P13" s="267"/>
+      <c r="Q13" s="268"/>
+      <c r="R13" s="268"/>
+      <c r="S13" s="268"/>
+      <c r="T13" s="268"/>
+      <c r="U13" s="268"/>
+      <c r="V13" s="269"/>
     </row>
     <row r="14" spans="1:22" s="11" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="250" t="s">
+      <c r="A14" s="243" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="245"/>
-      <c r="C14" s="245"/>
-      <c r="D14" s="245"/>
-      <c r="E14" s="290" t="s">
+      <c r="B14" s="244"/>
+      <c r="C14" s="244"/>
+      <c r="D14" s="244"/>
+      <c r="E14" s="245" t="s">
         <v>130</v>
       </c>
-      <c r="F14" s="290"/>
-      <c r="G14" s="290"/>
-      <c r="H14" s="290"/>
-      <c r="I14" s="290"/>
-      <c r="J14" s="290"/>
-      <c r="K14" s="290"/>
-      <c r="L14" s="245"/>
-      <c r="M14" s="245"/>
-      <c r="N14" s="245"/>
-      <c r="O14" s="245"/>
-      <c r="P14" s="282"/>
-      <c r="Q14" s="282"/>
-      <c r="R14" s="282"/>
-      <c r="S14" s="282"/>
-      <c r="T14" s="282"/>
-      <c r="U14" s="282"/>
-      <c r="V14" s="283"/>
+      <c r="F14" s="245"/>
+      <c r="G14" s="245"/>
+      <c r="H14" s="245"/>
+      <c r="I14" s="245"/>
+      <c r="J14" s="245"/>
+      <c r="K14" s="245"/>
+      <c r="L14" s="244"/>
+      <c r="M14" s="244"/>
+      <c r="N14" s="244"/>
+      <c r="O14" s="244"/>
+      <c r="P14" s="270"/>
+      <c r="Q14" s="270"/>
+      <c r="R14" s="270"/>
+      <c r="S14" s="270"/>
+      <c r="T14" s="270"/>
+      <c r="U14" s="270"/>
+      <c r="V14" s="271"/>
     </row>
     <row r="15" spans="1:22" s="11" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
@@ -5368,528 +5371,528 @@
       <c r="V15" s="12"/>
     </row>
     <row r="16" spans="1:22" s="11" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="276" t="s">
+      <c r="A16" s="264" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="277"/>
-      <c r="C16" s="277"/>
-      <c r="D16" s="277"/>
-      <c r="E16" s="277"/>
-      <c r="F16" s="277"/>
-      <c r="G16" s="277"/>
-      <c r="H16" s="277"/>
-      <c r="I16" s="277"/>
-      <c r="J16" s="277"/>
-      <c r="K16" s="277"/>
-      <c r="L16" s="277"/>
-      <c r="M16" s="277"/>
-      <c r="N16" s="278"/>
-      <c r="O16" s="271" t="s">
+      <c r="B16" s="265"/>
+      <c r="C16" s="265"/>
+      <c r="D16" s="265"/>
+      <c r="E16" s="265"/>
+      <c r="F16" s="265"/>
+      <c r="G16" s="265"/>
+      <c r="H16" s="265"/>
+      <c r="I16" s="265"/>
+      <c r="J16" s="265"/>
+      <c r="K16" s="265"/>
+      <c r="L16" s="265"/>
+      <c r="M16" s="265"/>
+      <c r="N16" s="266"/>
+      <c r="O16" s="261" t="s">
         <v>86</v>
       </c>
-      <c r="P16" s="272"/>
-      <c r="Q16" s="272"/>
-      <c r="R16" s="272"/>
-      <c r="S16" s="272"/>
-      <c r="T16" s="272"/>
-      <c r="U16" s="272"/>
-      <c r="V16" s="273"/>
+      <c r="P16" s="262"/>
+      <c r="Q16" s="262"/>
+      <c r="R16" s="262"/>
+      <c r="S16" s="262"/>
+      <c r="T16" s="262"/>
+      <c r="U16" s="262"/>
+      <c r="V16" s="263"/>
     </row>
     <row r="17" spans="1:22" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="274" t="s">
+      <c r="B17" s="206" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="275"/>
-      <c r="D17" s="274" t="s">
+      <c r="C17" s="220"/>
+      <c r="D17" s="206" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="275"/>
-      <c r="F17" s="274" t="s">
+      <c r="E17" s="220"/>
+      <c r="F17" s="206" t="s">
         <v>83</v>
       </c>
-      <c r="G17" s="306"/>
-      <c r="H17" s="275"/>
-      <c r="I17" s="274" t="s">
+      <c r="G17" s="207"/>
+      <c r="H17" s="220"/>
+      <c r="I17" s="206" t="s">
         <v>85</v>
       </c>
-      <c r="J17" s="306"/>
-      <c r="K17" s="306"/>
-      <c r="L17" s="306"/>
-      <c r="M17" s="306"/>
-      <c r="N17" s="307"/>
-      <c r="O17" s="309" t="s">
+      <c r="J17" s="207"/>
+      <c r="K17" s="207"/>
+      <c r="L17" s="207"/>
+      <c r="M17" s="207"/>
+      <c r="N17" s="208"/>
+      <c r="O17" s="221" t="s">
         <v>88</v>
       </c>
-      <c r="P17" s="310"/>
-      <c r="Q17" s="310"/>
-      <c r="R17" s="311"/>
-      <c r="S17" s="268" t="s">
+      <c r="P17" s="222"/>
+      <c r="Q17" s="222"/>
+      <c r="R17" s="223"/>
+      <c r="S17" s="258" t="s">
         <v>52</v>
       </c>
-      <c r="T17" s="269"/>
-      <c r="U17" s="269"/>
-      <c r="V17" s="270"/>
+      <c r="T17" s="259"/>
+      <c r="U17" s="259"/>
+      <c r="V17" s="260"/>
     </row>
     <row r="18" spans="1:22" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="291" t="s">
+      <c r="A18" s="232" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="229" t="s">
+      <c r="B18" s="213" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="230"/>
-      <c r="D18" s="308">
+      <c r="C18" s="214"/>
+      <c r="D18" s="217">
         <v>45271</v>
       </c>
-      <c r="E18" s="226"/>
-      <c r="F18" s="225" t="s">
+      <c r="E18" s="210"/>
+      <c r="F18" s="209" t="s">
         <v>629</v>
       </c>
-      <c r="G18" s="284"/>
-      <c r="H18" s="226"/>
-      <c r="I18" s="312" t="s">
+      <c r="G18" s="218"/>
+      <c r="H18" s="210"/>
+      <c r="I18" s="226" t="s">
         <v>630</v>
       </c>
-      <c r="J18" s="313"/>
-      <c r="K18" s="313"/>
-      <c r="L18" s="313"/>
-      <c r="M18" s="313"/>
-      <c r="N18" s="314"/>
+      <c r="J18" s="227"/>
+      <c r="K18" s="227"/>
+      <c r="L18" s="227"/>
+      <c r="M18" s="227"/>
+      <c r="N18" s="228"/>
       <c r="O18" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="P18" s="219" t="s">
+      <c r="P18" s="204" t="s">
         <v>3</v>
       </c>
-      <c r="Q18" s="219"/>
-      <c r="R18" s="220"/>
+      <c r="Q18" s="204"/>
+      <c r="R18" s="205"/>
       <c r="S18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="T18" s="295" t="s">
+      <c r="T18" s="248" t="s">
         <v>64</v>
       </c>
-      <c r="U18" s="295"/>
-      <c r="V18" s="296"/>
+      <c r="U18" s="248"/>
+      <c r="V18" s="249"/>
     </row>
     <row r="19" spans="1:22" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="292"/>
-      <c r="B19" s="231"/>
-      <c r="C19" s="232"/>
-      <c r="D19" s="227"/>
-      <c r="E19" s="228"/>
-      <c r="F19" s="227"/>
-      <c r="G19" s="286"/>
-      <c r="H19" s="228"/>
-      <c r="I19" s="315"/>
-      <c r="J19" s="316"/>
-      <c r="K19" s="316"/>
-      <c r="L19" s="316"/>
-      <c r="M19" s="316"/>
-      <c r="N19" s="317"/>
+      <c r="A19" s="240"/>
+      <c r="B19" s="215"/>
+      <c r="C19" s="216"/>
+      <c r="D19" s="211"/>
+      <c r="E19" s="212"/>
+      <c r="F19" s="211"/>
+      <c r="G19" s="219"/>
+      <c r="H19" s="212"/>
+      <c r="I19" s="229"/>
+      <c r="J19" s="230"/>
+      <c r="K19" s="230"/>
+      <c r="L19" s="230"/>
+      <c r="M19" s="230"/>
+      <c r="N19" s="231"/>
       <c r="O19" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="P19" s="219" t="s">
+      <c r="P19" s="204" t="s">
         <v>5</v>
       </c>
-      <c r="Q19" s="219"/>
-      <c r="R19" s="220"/>
+      <c r="Q19" s="204"/>
+      <c r="R19" s="205"/>
       <c r="S19" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="T19" s="293" t="s">
+      <c r="T19" s="246" t="s">
         <v>66</v>
       </c>
-      <c r="U19" s="293"/>
-      <c r="V19" s="294"/>
+      <c r="U19" s="246"/>
+      <c r="V19" s="247"/>
     </row>
     <row r="20" spans="1:22" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="291"/>
-      <c r="B20" s="229"/>
-      <c r="C20" s="230"/>
-      <c r="D20" s="225"/>
-      <c r="E20" s="226"/>
-      <c r="F20" s="225"/>
-      <c r="G20" s="284"/>
-      <c r="H20" s="226"/>
-      <c r="I20" s="225"/>
-      <c r="J20" s="284"/>
-      <c r="K20" s="284"/>
-      <c r="L20" s="284"/>
-      <c r="M20" s="284"/>
-      <c r="N20" s="285"/>
+      <c r="A20" s="232"/>
+      <c r="B20" s="213"/>
+      <c r="C20" s="214"/>
+      <c r="D20" s="209"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="209"/>
+      <c r="G20" s="218"/>
+      <c r="H20" s="210"/>
+      <c r="I20" s="209"/>
+      <c r="J20" s="218"/>
+      <c r="K20" s="218"/>
+      <c r="L20" s="218"/>
+      <c r="M20" s="218"/>
+      <c r="N20" s="224"/>
       <c r="O20" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="P20" s="219" t="s">
+      <c r="P20" s="204" t="s">
         <v>7</v>
       </c>
-      <c r="Q20" s="219"/>
-      <c r="R20" s="220"/>
+      <c r="Q20" s="204"/>
+      <c r="R20" s="205"/>
       <c r="S20" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="T20" s="219" t="s">
+      <c r="T20" s="204" t="s">
         <v>68</v>
       </c>
-      <c r="U20" s="219"/>
-      <c r="V20" s="220"/>
+      <c r="U20" s="204"/>
+      <c r="V20" s="205"/>
     </row>
     <row r="21" spans="1:22" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="292"/>
-      <c r="B21" s="231"/>
-      <c r="C21" s="232"/>
-      <c r="D21" s="227"/>
-      <c r="E21" s="228"/>
-      <c r="F21" s="227"/>
-      <c r="G21" s="286"/>
-      <c r="H21" s="228"/>
-      <c r="I21" s="227"/>
-      <c r="J21" s="286"/>
-      <c r="K21" s="286"/>
-      <c r="L21" s="286"/>
-      <c r="M21" s="286"/>
-      <c r="N21" s="287"/>
+      <c r="A21" s="240"/>
+      <c r="B21" s="215"/>
+      <c r="C21" s="216"/>
+      <c r="D21" s="211"/>
+      <c r="E21" s="212"/>
+      <c r="F21" s="211"/>
+      <c r="G21" s="219"/>
+      <c r="H21" s="212"/>
+      <c r="I21" s="211"/>
+      <c r="J21" s="219"/>
+      <c r="K21" s="219"/>
+      <c r="L21" s="219"/>
+      <c r="M21" s="219"/>
+      <c r="N21" s="225"/>
       <c r="O21" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="219" t="s">
+      <c r="P21" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="Q21" s="219"/>
-      <c r="R21" s="220"/>
+      <c r="Q21" s="204"/>
+      <c r="R21" s="205"/>
       <c r="S21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="T21" s="219" t="s">
+      <c r="T21" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="U21" s="219"/>
-      <c r="V21" s="220"/>
+      <c r="U21" s="204"/>
+      <c r="V21" s="205"/>
     </row>
     <row r="22" spans="1:22" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="291"/>
-      <c r="B22" s="229"/>
-      <c r="C22" s="230"/>
-      <c r="D22" s="225"/>
-      <c r="E22" s="226"/>
-      <c r="F22" s="225"/>
-      <c r="G22" s="284"/>
-      <c r="H22" s="226"/>
-      <c r="I22" s="225"/>
-      <c r="J22" s="284"/>
-      <c r="K22" s="284"/>
-      <c r="L22" s="284"/>
-      <c r="M22" s="284"/>
-      <c r="N22" s="285"/>
+      <c r="A22" s="232"/>
+      <c r="B22" s="213"/>
+      <c r="C22" s="214"/>
+      <c r="D22" s="209"/>
+      <c r="E22" s="210"/>
+      <c r="F22" s="209"/>
+      <c r="G22" s="218"/>
+      <c r="H22" s="210"/>
+      <c r="I22" s="209"/>
+      <c r="J22" s="218"/>
+      <c r="K22" s="218"/>
+      <c r="L22" s="218"/>
+      <c r="M22" s="218"/>
+      <c r="N22" s="224"/>
       <c r="O22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="219" t="s">
+      <c r="P22" s="204" t="s">
         <v>11</v>
       </c>
-      <c r="Q22" s="219"/>
-      <c r="R22" s="220"/>
+      <c r="Q22" s="204"/>
+      <c r="R22" s="205"/>
       <c r="S22" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="T22" s="219" t="s">
+      <c r="T22" s="204" t="s">
         <v>29</v>
       </c>
-      <c r="U22" s="219"/>
-      <c r="V22" s="220"/>
+      <c r="U22" s="204"/>
+      <c r="V22" s="205"/>
     </row>
     <row r="23" spans="1:22" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="292"/>
-      <c r="B23" s="231"/>
-      <c r="C23" s="232"/>
-      <c r="D23" s="227"/>
-      <c r="E23" s="228"/>
-      <c r="F23" s="227"/>
-      <c r="G23" s="286"/>
-      <c r="H23" s="228"/>
-      <c r="I23" s="227"/>
-      <c r="J23" s="286"/>
-      <c r="K23" s="286"/>
-      <c r="L23" s="286"/>
-      <c r="M23" s="286"/>
-      <c r="N23" s="287"/>
+      <c r="A23" s="240"/>
+      <c r="B23" s="215"/>
+      <c r="C23" s="216"/>
+      <c r="D23" s="211"/>
+      <c r="E23" s="212"/>
+      <c r="F23" s="211"/>
+      <c r="G23" s="219"/>
+      <c r="H23" s="212"/>
+      <c r="I23" s="211"/>
+      <c r="J23" s="219"/>
+      <c r="K23" s="219"/>
+      <c r="L23" s="219"/>
+      <c r="M23" s="219"/>
+      <c r="N23" s="225"/>
       <c r="O23" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="P23" s="288" t="s">
+      <c r="P23" s="241" t="s">
         <v>63</v>
       </c>
-      <c r="Q23" s="288"/>
-      <c r="R23" s="289"/>
+      <c r="Q23" s="241"/>
+      <c r="R23" s="242"/>
       <c r="S23" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="T23" s="219" t="s">
+      <c r="T23" s="204" t="s">
         <v>78</v>
       </c>
-      <c r="U23" s="219"/>
-      <c r="V23" s="220"/>
+      <c r="U23" s="204"/>
+      <c r="V23" s="205"/>
     </row>
     <row r="24" spans="1:22" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="291"/>
-      <c r="B24" s="229"/>
-      <c r="C24" s="230"/>
-      <c r="D24" s="225"/>
-      <c r="E24" s="226"/>
-      <c r="F24" s="225"/>
-      <c r="G24" s="284"/>
-      <c r="H24" s="226"/>
-      <c r="I24" s="225"/>
-      <c r="J24" s="284"/>
-      <c r="K24" s="284"/>
-      <c r="L24" s="284"/>
-      <c r="M24" s="284"/>
-      <c r="N24" s="285"/>
+      <c r="A24" s="232"/>
+      <c r="B24" s="213"/>
+      <c r="C24" s="214"/>
+      <c r="D24" s="209"/>
+      <c r="E24" s="210"/>
+      <c r="F24" s="209"/>
+      <c r="G24" s="218"/>
+      <c r="H24" s="210"/>
+      <c r="I24" s="209"/>
+      <c r="J24" s="218"/>
+      <c r="K24" s="218"/>
+      <c r="L24" s="218"/>
+      <c r="M24" s="218"/>
+      <c r="N24" s="224"/>
       <c r="O24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P24" s="233" t="s">
+      <c r="P24" s="297" t="s">
         <v>61</v>
       </c>
-      <c r="Q24" s="233"/>
-      <c r="R24" s="234"/>
+      <c r="Q24" s="297"/>
+      <c r="R24" s="298"/>
       <c r="S24" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="T24" s="219" t="s">
+      <c r="T24" s="204" t="s">
         <v>79</v>
       </c>
-      <c r="U24" s="219"/>
-      <c r="V24" s="220"/>
+      <c r="U24" s="204"/>
+      <c r="V24" s="205"/>
     </row>
     <row r="25" spans="1:22" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="292"/>
-      <c r="B25" s="231"/>
-      <c r="C25" s="232"/>
-      <c r="D25" s="227"/>
-      <c r="E25" s="228"/>
-      <c r="F25" s="227"/>
-      <c r="G25" s="286"/>
-      <c r="H25" s="228"/>
-      <c r="I25" s="227"/>
-      <c r="J25" s="286"/>
-      <c r="K25" s="286"/>
-      <c r="L25" s="286"/>
-      <c r="M25" s="286"/>
-      <c r="N25" s="287"/>
+      <c r="A25" s="240"/>
+      <c r="B25" s="215"/>
+      <c r="C25" s="216"/>
+      <c r="D25" s="211"/>
+      <c r="E25" s="212"/>
+      <c r="F25" s="211"/>
+      <c r="G25" s="219"/>
+      <c r="H25" s="212"/>
+      <c r="I25" s="211"/>
+      <c r="J25" s="219"/>
+      <c r="K25" s="219"/>
+      <c r="L25" s="219"/>
+      <c r="M25" s="219"/>
+      <c r="N25" s="225"/>
       <c r="O25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="P25" s="219" t="s">
+      <c r="P25" s="204" t="s">
         <v>14</v>
       </c>
-      <c r="Q25" s="219"/>
-      <c r="R25" s="220"/>
+      <c r="Q25" s="204"/>
+      <c r="R25" s="205"/>
       <c r="S25" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="T25" s="219" t="s">
+      <c r="T25" s="204" t="s">
         <v>70</v>
       </c>
-      <c r="U25" s="219"/>
-      <c r="V25" s="220"/>
+      <c r="U25" s="204"/>
+      <c r="V25" s="205"/>
     </row>
     <row r="26" spans="1:22" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="291"/>
-      <c r="B26" s="229"/>
-      <c r="C26" s="230"/>
-      <c r="D26" s="225"/>
-      <c r="E26" s="226"/>
-      <c r="F26" s="225"/>
-      <c r="G26" s="284"/>
-      <c r="H26" s="226"/>
-      <c r="I26" s="225"/>
-      <c r="J26" s="284"/>
-      <c r="K26" s="284"/>
-      <c r="L26" s="284"/>
-      <c r="M26" s="284"/>
-      <c r="N26" s="285"/>
+      <c r="A26" s="232"/>
+      <c r="B26" s="213"/>
+      <c r="C26" s="214"/>
+      <c r="D26" s="209"/>
+      <c r="E26" s="210"/>
+      <c r="F26" s="209"/>
+      <c r="G26" s="218"/>
+      <c r="H26" s="210"/>
+      <c r="I26" s="209"/>
+      <c r="J26" s="218"/>
+      <c r="K26" s="218"/>
+      <c r="L26" s="218"/>
+      <c r="M26" s="218"/>
+      <c r="N26" s="224"/>
       <c r="O26" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="P26" s="219" t="s">
+      <c r="P26" s="204" t="s">
         <v>16</v>
       </c>
-      <c r="Q26" s="219"/>
-      <c r="R26" s="220"/>
+      <c r="Q26" s="204"/>
+      <c r="R26" s="205"/>
       <c r="S26" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="T26" s="219" t="s">
+      <c r="T26" s="204" t="s">
         <v>71</v>
       </c>
-      <c r="U26" s="219"/>
-      <c r="V26" s="220"/>
+      <c r="U26" s="204"/>
+      <c r="V26" s="205"/>
     </row>
     <row r="27" spans="1:22" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="292"/>
-      <c r="B27" s="231"/>
-      <c r="C27" s="232"/>
-      <c r="D27" s="227"/>
-      <c r="E27" s="228"/>
-      <c r="F27" s="227"/>
-      <c r="G27" s="286"/>
-      <c r="H27" s="228"/>
-      <c r="I27" s="227"/>
-      <c r="J27" s="286"/>
-      <c r="K27" s="286"/>
-      <c r="L27" s="286"/>
-      <c r="M27" s="286"/>
-      <c r="N27" s="287"/>
+      <c r="A27" s="240"/>
+      <c r="B27" s="215"/>
+      <c r="C27" s="216"/>
+      <c r="D27" s="211"/>
+      <c r="E27" s="212"/>
+      <c r="F27" s="211"/>
+      <c r="G27" s="219"/>
+      <c r="H27" s="212"/>
+      <c r="I27" s="211"/>
+      <c r="J27" s="219"/>
+      <c r="K27" s="219"/>
+      <c r="L27" s="219"/>
+      <c r="M27" s="219"/>
+      <c r="N27" s="225"/>
       <c r="O27" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="P27" s="219" t="s">
+      <c r="P27" s="204" t="s">
         <v>18</v>
       </c>
-      <c r="Q27" s="219"/>
-      <c r="R27" s="220"/>
+      <c r="Q27" s="204"/>
+      <c r="R27" s="205"/>
       <c r="S27" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="T27" s="219" t="s">
+      <c r="T27" s="204" t="s">
         <v>33</v>
       </c>
-      <c r="U27" s="219"/>
-      <c r="V27" s="220"/>
+      <c r="U27" s="204"/>
+      <c r="V27" s="205"/>
     </row>
     <row r="28" spans="1:22" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="291"/>
-      <c r="B28" s="229"/>
-      <c r="C28" s="230"/>
-      <c r="D28" s="225"/>
-      <c r="E28" s="226"/>
-      <c r="F28" s="225"/>
-      <c r="G28" s="284"/>
-      <c r="H28" s="226"/>
-      <c r="I28" s="225"/>
-      <c r="J28" s="284"/>
-      <c r="K28" s="284"/>
-      <c r="L28" s="284"/>
-      <c r="M28" s="284"/>
-      <c r="N28" s="285"/>
+      <c r="A28" s="232"/>
+      <c r="B28" s="213"/>
+      <c r="C28" s="214"/>
+      <c r="D28" s="209"/>
+      <c r="E28" s="210"/>
+      <c r="F28" s="209"/>
+      <c r="G28" s="218"/>
+      <c r="H28" s="210"/>
+      <c r="I28" s="209"/>
+      <c r="J28" s="218"/>
+      <c r="K28" s="218"/>
+      <c r="L28" s="218"/>
+      <c r="M28" s="218"/>
+      <c r="N28" s="224"/>
       <c r="O28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="P28" s="219" t="s">
+      <c r="P28" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="Q28" s="219"/>
-      <c r="R28" s="220"/>
+      <c r="Q28" s="204"/>
+      <c r="R28" s="205"/>
       <c r="S28" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="T28" s="219" t="s">
+      <c r="T28" s="204" t="s">
         <v>91</v>
       </c>
-      <c r="U28" s="219"/>
-      <c r="V28" s="220"/>
+      <c r="U28" s="204"/>
+      <c r="V28" s="205"/>
     </row>
     <row r="29" spans="1:22" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="292"/>
-      <c r="B29" s="231"/>
-      <c r="C29" s="232"/>
-      <c r="D29" s="227"/>
-      <c r="E29" s="228"/>
-      <c r="F29" s="227"/>
-      <c r="G29" s="286"/>
-      <c r="H29" s="228"/>
-      <c r="I29" s="227"/>
-      <c r="J29" s="286"/>
-      <c r="K29" s="286"/>
-      <c r="L29" s="286"/>
-      <c r="M29" s="286"/>
-      <c r="N29" s="287"/>
+      <c r="A29" s="240"/>
+      <c r="B29" s="215"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="211"/>
+      <c r="E29" s="212"/>
+      <c r="F29" s="211"/>
+      <c r="G29" s="219"/>
+      <c r="H29" s="212"/>
+      <c r="I29" s="211"/>
+      <c r="J29" s="219"/>
+      <c r="K29" s="219"/>
+      <c r="L29" s="219"/>
+      <c r="M29" s="219"/>
+      <c r="N29" s="225"/>
       <c r="O29" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="P29" s="219" t="s">
+      <c r="P29" s="204" t="s">
         <v>22</v>
       </c>
-      <c r="Q29" s="219"/>
-      <c r="R29" s="220"/>
+      <c r="Q29" s="204"/>
+      <c r="R29" s="205"/>
       <c r="S29" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="T29" s="219" t="s">
+      <c r="T29" s="204" t="s">
         <v>36</v>
       </c>
-      <c r="U29" s="219"/>
-      <c r="V29" s="220"/>
+      <c r="U29" s="204"/>
+      <c r="V29" s="205"/>
     </row>
     <row r="30" spans="1:22" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="291"/>
-      <c r="B30" s="229"/>
-      <c r="C30" s="230"/>
-      <c r="D30" s="225"/>
-      <c r="E30" s="226"/>
-      <c r="F30" s="225"/>
-      <c r="G30" s="284"/>
-      <c r="H30" s="226"/>
-      <c r="I30" s="225"/>
-      <c r="J30" s="284"/>
-      <c r="K30" s="284"/>
-      <c r="L30" s="284"/>
-      <c r="M30" s="284"/>
-      <c r="N30" s="285"/>
+      <c r="A30" s="232"/>
+      <c r="B30" s="213"/>
+      <c r="C30" s="214"/>
+      <c r="D30" s="209"/>
+      <c r="E30" s="210"/>
+      <c r="F30" s="209"/>
+      <c r="G30" s="218"/>
+      <c r="H30" s="210"/>
+      <c r="I30" s="209"/>
+      <c r="J30" s="218"/>
+      <c r="K30" s="218"/>
+      <c r="L30" s="218"/>
+      <c r="M30" s="218"/>
+      <c r="N30" s="224"/>
       <c r="O30" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="P30" s="219" t="s">
+      <c r="P30" s="204" t="s">
         <v>24</v>
       </c>
-      <c r="Q30" s="219"/>
-      <c r="R30" s="220"/>
+      <c r="Q30" s="204"/>
+      <c r="R30" s="205"/>
       <c r="S30" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="T30" s="221" t="s">
+      <c r="T30" s="293" t="s">
         <v>106</v>
       </c>
-      <c r="U30" s="221"/>
-      <c r="V30" s="222"/>
+      <c r="U30" s="293"/>
+      <c r="V30" s="294"/>
     </row>
     <row r="31" spans="1:22" s="11" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="297"/>
-      <c r="B31" s="298"/>
-      <c r="C31" s="299"/>
-      <c r="D31" s="300"/>
-      <c r="E31" s="301"/>
-      <c r="F31" s="300"/>
-      <c r="G31" s="302"/>
-      <c r="H31" s="301"/>
-      <c r="I31" s="300"/>
-      <c r="J31" s="302"/>
-      <c r="K31" s="302"/>
-      <c r="L31" s="302"/>
-      <c r="M31" s="302"/>
-      <c r="N31" s="303"/>
+      <c r="A31" s="233"/>
+      <c r="B31" s="234"/>
+      <c r="C31" s="235"/>
+      <c r="D31" s="236"/>
+      <c r="E31" s="237"/>
+      <c r="F31" s="236"/>
+      <c r="G31" s="238"/>
+      <c r="H31" s="237"/>
+      <c r="I31" s="236"/>
+      <c r="J31" s="238"/>
+      <c r="K31" s="238"/>
+      <c r="L31" s="238"/>
+      <c r="M31" s="238"/>
+      <c r="N31" s="239"/>
       <c r="O31" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="P31" s="304" t="s">
+      <c r="P31" s="202" t="s">
         <v>26</v>
       </c>
-      <c r="Q31" s="304"/>
-      <c r="R31" s="305"/>
+      <c r="Q31" s="202"/>
+      <c r="R31" s="203"/>
       <c r="S31" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="T31" s="223" t="s">
+      <c r="T31" s="295" t="s">
         <v>73</v>
       </c>
-      <c r="U31" s="223"/>
-      <c r="V31" s="224"/>
+      <c r="U31" s="295"/>
+      <c r="V31" s="296"/>
     </row>
     <row r="32" spans="1:22" s="11" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
@@ -5916,32 +5919,32 @@
       <c r="V32" s="12"/>
     </row>
     <row r="33" spans="1:22" s="11" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="235" t="s">
+      <c r="A33" s="299" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="236"/>
-      <c r="C33" s="236"/>
-      <c r="D33" s="236"/>
-      <c r="E33" s="236"/>
-      <c r="F33" s="236"/>
-      <c r="G33" s="236"/>
-      <c r="H33" s="236"/>
-      <c r="I33" s="236"/>
-      <c r="J33" s="236"/>
-      <c r="K33" s="237"/>
-      <c r="L33" s="235" t="s">
+      <c r="B33" s="300"/>
+      <c r="C33" s="300"/>
+      <c r="D33" s="300"/>
+      <c r="E33" s="300"/>
+      <c r="F33" s="300"/>
+      <c r="G33" s="300"/>
+      <c r="H33" s="300"/>
+      <c r="I33" s="300"/>
+      <c r="J33" s="300"/>
+      <c r="K33" s="301"/>
+      <c r="L33" s="299" t="s">
         <v>114</v>
       </c>
-      <c r="M33" s="236"/>
-      <c r="N33" s="236"/>
-      <c r="O33" s="236"/>
-      <c r="P33" s="236"/>
-      <c r="Q33" s="236"/>
-      <c r="R33" s="236"/>
-      <c r="S33" s="236"/>
-      <c r="T33" s="236"/>
-      <c r="U33" s="236"/>
-      <c r="V33" s="237"/>
+      <c r="M33" s="300"/>
+      <c r="N33" s="300"/>
+      <c r="O33" s="300"/>
+      <c r="P33" s="300"/>
+      <c r="Q33" s="300"/>
+      <c r="R33" s="300"/>
+      <c r="S33" s="300"/>
+      <c r="T33" s="300"/>
+      <c r="U33" s="300"/>
+      <c r="V33" s="301"/>
     </row>
     <row r="34" spans="1:22" s="11" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
@@ -5968,131 +5971,235 @@
       <c r="V34" s="12"/>
     </row>
     <row r="35" spans="1:22" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="238" t="s">
+      <c r="A35" s="302" t="s">
         <v>115</v>
       </c>
-      <c r="B35" s="239"/>
-      <c r="C35" s="240"/>
-      <c r="D35" s="217" t="s">
+      <c r="B35" s="303"/>
+      <c r="C35" s="304"/>
+      <c r="D35" s="291" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="239"/>
-      <c r="F35" s="240"/>
-      <c r="G35" s="217" t="s">
+      <c r="E35" s="303"/>
+      <c r="F35" s="304"/>
+      <c r="G35" s="291" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="239"/>
-      <c r="I35" s="240"/>
-      <c r="J35" s="217" t="s">
+      <c r="H35" s="303"/>
+      <c r="I35" s="304"/>
+      <c r="J35" s="291" t="s">
         <v>40</v>
       </c>
-      <c r="K35" s="218"/>
-      <c r="L35" s="238" t="s">
+      <c r="K35" s="292"/>
+      <c r="L35" s="302" t="s">
         <v>115</v>
       </c>
-      <c r="M35" s="239"/>
-      <c r="N35" s="240"/>
-      <c r="O35" s="217" t="s">
+      <c r="M35" s="303"/>
+      <c r="N35" s="304"/>
+      <c r="O35" s="291" t="s">
         <v>42</v>
       </c>
-      <c r="P35" s="239"/>
-      <c r="Q35" s="240"/>
-      <c r="R35" s="217" t="s">
+      <c r="P35" s="303"/>
+      <c r="Q35" s="304"/>
+      <c r="R35" s="291" t="s">
         <v>43</v>
       </c>
-      <c r="S35" s="239"/>
-      <c r="T35" s="240"/>
-      <c r="U35" s="217" t="s">
+      <c r="S35" s="303"/>
+      <c r="T35" s="304"/>
+      <c r="U35" s="291" t="s">
         <v>40</v>
       </c>
-      <c r="V35" s="218"/>
+      <c r="V35" s="292"/>
     </row>
     <row r="36" spans="1:22" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="214" t="s">
+      <c r="A36" s="305" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="215"/>
-      <c r="C36" s="216"/>
-      <c r="D36" s="202"/>
-      <c r="E36" s="212"/>
-      <c r="F36" s="213"/>
-      <c r="G36" s="202"/>
-      <c r="H36" s="212"/>
-      <c r="I36" s="213"/>
-      <c r="J36" s="202"/>
-      <c r="K36" s="203"/>
-      <c r="L36" s="214" t="s">
+      <c r="B36" s="306"/>
+      <c r="C36" s="307"/>
+      <c r="D36" s="289"/>
+      <c r="E36" s="308"/>
+      <c r="F36" s="309"/>
+      <c r="G36" s="289"/>
+      <c r="H36" s="308"/>
+      <c r="I36" s="309"/>
+      <c r="J36" s="289"/>
+      <c r="K36" s="290"/>
+      <c r="L36" s="305" t="s">
         <v>116</v>
       </c>
-      <c r="M36" s="215"/>
-      <c r="N36" s="216"/>
-      <c r="O36" s="202"/>
-      <c r="P36" s="212"/>
-      <c r="Q36" s="213"/>
-      <c r="R36" s="202"/>
-      <c r="S36" s="212"/>
-      <c r="T36" s="213"/>
-      <c r="U36" s="202"/>
-      <c r="V36" s="203"/>
+      <c r="M36" s="306"/>
+      <c r="N36" s="307"/>
+      <c r="O36" s="289"/>
+      <c r="P36" s="308"/>
+      <c r="Q36" s="309"/>
+      <c r="R36" s="289"/>
+      <c r="S36" s="308"/>
+      <c r="T36" s="309"/>
+      <c r="U36" s="289"/>
+      <c r="V36" s="290"/>
     </row>
     <row r="37" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="214" t="s">
+      <c r="A37" s="305" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="215"/>
-      <c r="C37" s="216"/>
-      <c r="D37" s="202"/>
-      <c r="E37" s="212"/>
-      <c r="F37" s="213"/>
-      <c r="G37" s="202"/>
-      <c r="H37" s="212"/>
-      <c r="I37" s="213"/>
-      <c r="J37" s="202"/>
-      <c r="K37" s="203"/>
-      <c r="L37" s="214" t="s">
+      <c r="B37" s="306"/>
+      <c r="C37" s="307"/>
+      <c r="D37" s="289"/>
+      <c r="E37" s="308"/>
+      <c r="F37" s="309"/>
+      <c r="G37" s="289"/>
+      <c r="H37" s="308"/>
+      <c r="I37" s="309"/>
+      <c r="J37" s="289"/>
+      <c r="K37" s="290"/>
+      <c r="L37" s="305" t="s">
         <v>117</v>
       </c>
-      <c r="M37" s="215"/>
-      <c r="N37" s="216"/>
-      <c r="O37" s="202"/>
-      <c r="P37" s="212"/>
-      <c r="Q37" s="213"/>
-      <c r="R37" s="202"/>
-      <c r="S37" s="212"/>
-      <c r="T37" s="213"/>
-      <c r="U37" s="202"/>
-      <c r="V37" s="203"/>
+      <c r="M37" s="306"/>
+      <c r="N37" s="307"/>
+      <c r="O37" s="289"/>
+      <c r="P37" s="308"/>
+      <c r="Q37" s="309"/>
+      <c r="R37" s="289"/>
+      <c r="S37" s="308"/>
+      <c r="T37" s="309"/>
+      <c r="U37" s="289"/>
+      <c r="V37" s="290"/>
     </row>
     <row r="38" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="204" t="s">
+      <c r="A38" s="310" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="205"/>
-      <c r="C38" s="206"/>
-      <c r="D38" s="207"/>
-      <c r="E38" s="208"/>
-      <c r="F38" s="209"/>
-      <c r="G38" s="207"/>
-      <c r="H38" s="208"/>
-      <c r="I38" s="209"/>
-      <c r="J38" s="210"/>
-      <c r="K38" s="211"/>
-      <c r="L38" s="204" t="s">
+      <c r="B38" s="311"/>
+      <c r="C38" s="312"/>
+      <c r="D38" s="313"/>
+      <c r="E38" s="314"/>
+      <c r="F38" s="315"/>
+      <c r="G38" s="313"/>
+      <c r="H38" s="314"/>
+      <c r="I38" s="315"/>
+      <c r="J38" s="316"/>
+      <c r="K38" s="317"/>
+      <c r="L38" s="310" t="s">
         <v>118</v>
       </c>
-      <c r="M38" s="205"/>
-      <c r="N38" s="206"/>
-      <c r="O38" s="207"/>
-      <c r="P38" s="208"/>
-      <c r="Q38" s="209"/>
-      <c r="R38" s="207"/>
-      <c r="S38" s="208"/>
-      <c r="T38" s="209"/>
-      <c r="U38" s="207"/>
-      <c r="V38" s="211"/>
+      <c r="M38" s="311"/>
+      <c r="N38" s="312"/>
+      <c r="O38" s="313"/>
+      <c r="P38" s="314"/>
+      <c r="Q38" s="315"/>
+      <c r="R38" s="313"/>
+      <c r="S38" s="314"/>
+      <c r="T38" s="315"/>
+      <c r="U38" s="313"/>
+      <c r="V38" s="317"/>
     </row>
   </sheetData>
   <mergeCells count="128">
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="L33:V33"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:V9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="A6:V6"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E10:K10"/>
+    <mergeCell ref="E8:K8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="P8:V8"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:V12"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="O16:V16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A16:N16"/>
+    <mergeCell ref="P13:V14"/>
+    <mergeCell ref="L13:O14"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="I22:N23"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:K14"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="F22:H23"/>
+    <mergeCell ref="D22:E23"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="D30:E31"/>
+    <mergeCell ref="F30:H31"/>
+    <mergeCell ref="I30:N31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="D28:E29"/>
+    <mergeCell ref="F28:H29"/>
+    <mergeCell ref="I28:N29"/>
     <mergeCell ref="P31:R31"/>
     <mergeCell ref="P30:R30"/>
     <mergeCell ref="P29:R29"/>
@@ -6117,110 +6224,6 @@
     <mergeCell ref="I24:N25"/>
     <mergeCell ref="I20:N21"/>
     <mergeCell ref="I18:N19"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="D30:E31"/>
-    <mergeCell ref="F30:H31"/>
-    <mergeCell ref="I30:N31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="D28:E29"/>
-    <mergeCell ref="F28:H29"/>
-    <mergeCell ref="I28:N29"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="I22:N23"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:K14"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="F22:H23"/>
-    <mergeCell ref="D22:E23"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:V12"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="O16:V16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A16:N16"/>
-    <mergeCell ref="P13:V14"/>
-    <mergeCell ref="L13:O14"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:V9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="A6:V6"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E10:K10"/>
-    <mergeCell ref="E8:K8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="P8:V8"/>
-    <mergeCell ref="P10:V10"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="A33:K33"/>
-    <mergeCell ref="L33:V33"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:N38"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="U38:V38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6244,9 +6247,9 @@
   </sheetPr>
   <dimension ref="A1:S304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C186" sqref="C186"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6257,7 +6260,7 @@
     <col min="4" max="4" width="16.28515625" style="11" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="97" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" style="99" customWidth="1"/>
-    <col min="7" max="7" width="10" style="11" customWidth="1"/>
+    <col min="7" max="7" width="10" style="11" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="11"/>
     <col min="9" max="9" width="10.7109375" style="11" customWidth="1"/>
     <col min="10" max="10" width="11.140625" style="11" customWidth="1"/>
@@ -6802,7 +6805,9 @@
       <c r="D24" s="148" t="s">
         <v>280</v>
       </c>
-      <c r="E24" s="148"/>
+      <c r="E24" s="148" t="s">
+        <v>632</v>
+      </c>
       <c r="F24" s="149" t="s">
         <v>112</v>
       </c>
@@ -11769,15 +11774,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100529978CE447BB747ADBF7FA46B0A40FA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2a6f7815c493d5d4f136c9f518f99b53">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4dcce58c87e9fcebab8021569449a8d0" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -11909,6 +11905,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -11919,14 +11924,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD775563-40EA-4EA7-B07D-58FC5723600B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{001BEB7A-9321-49AC-8B0D-A0BEC6D245AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11940,6 +11937,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD775563-40EA-4EA7-B07D-58FC5723600B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
